--- a/biology/Botanique/Dacryodes_excelsa/Dacryodes_excelsa.xlsx
+++ b/biology/Botanique/Dacryodes_excelsa/Dacryodes_excelsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gommier blanc (Dacryodes excelsa), également appelé gommier des montagnes ou tabonuco est une espèce d'arbre de la famille des Burseraceae que l'on rencontre dans les Caraïbes.
 Aux Antilles, son tronc était creusé par les indiens Caraïbes pour en faire un bateau du même nom. Son suc blanc, aromatique et inflammable est utilisé comme encens. Il est également utilisé comme cicatrisant.
